--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Tank</t>
   </si>
@@ -34,6 +34,39 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>TPS SYSTEM</t>
+  </si>
+  <si>
+    <t>Versality</t>
+  </si>
+  <si>
+    <t>Fame</t>
+  </si>
+  <si>
+    <t>Mastery</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Ecologist</t>
+  </si>
+  <si>
+    <t>Talents</t>
+  </si>
+  <si>
+    <t>TalentSet</t>
   </si>
 </sst>
 </file>
@@ -90,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -107,6 +140,12 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -387,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +952,174 @@
         <v>6582.653163519999</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2</v>
+      </c>
+      <c r="D33" s="13">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D34" s="10">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E34" s="10">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C35" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D35" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="C36" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D36" s="10">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A32:E32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -142,10 +142,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,13 +953,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -988,7 +988,9 @@
       <c r="D28" s="10">
         <v>0.5</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="11">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1042,22 +1044,22 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>1</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>2</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>3</v>
       </c>
       <c r="E33" t="s">
